--- a/Code/Results/Cases/Case_1_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9921058345549628</v>
+        <v>1.025412041794131</v>
       </c>
       <c r="D2">
-        <v>1.042745158921107</v>
+        <v>1.050621060138217</v>
       </c>
       <c r="E2">
-        <v>1.013755492351112</v>
+        <v>1.03775829515756</v>
       </c>
       <c r="F2">
-        <v>1.034675575456374</v>
+        <v>1.053583496790876</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053377764198824</v>
+        <v>1.03928360183805</v>
       </c>
       <c r="J2">
-        <v>1.014525250006733</v>
+        <v>1.030581209091588</v>
       </c>
       <c r="K2">
-        <v>1.053639452880954</v>
+        <v>1.053374829319516</v>
       </c>
       <c r="L2">
-        <v>1.025026460706414</v>
+        <v>1.040548265998759</v>
       </c>
       <c r="M2">
-        <v>1.04567207108019</v>
+        <v>1.056329064072817</v>
       </c>
       <c r="N2">
-        <v>1.008693534569953</v>
+        <v>1.014205257130815</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9962295921163979</v>
+        <v>1.026306042787938</v>
       </c>
       <c r="D3">
-        <v>1.045466211214849</v>
+        <v>1.05120623247427</v>
       </c>
       <c r="E3">
-        <v>1.017032613839219</v>
+        <v>1.038514992205918</v>
       </c>
       <c r="F3">
-        <v>1.03800548975541</v>
+        <v>1.054336578937991</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054145890113936</v>
+        <v>1.039384693642305</v>
       </c>
       <c r="J3">
-        <v>1.016823572660727</v>
+        <v>1.031114819076966</v>
       </c>
       <c r="K3">
-        <v>1.055548605886989</v>
+        <v>1.053773070461125</v>
       </c>
       <c r="L3">
-        <v>1.027452100715348</v>
+        <v>1.041114977310231</v>
       </c>
       <c r="M3">
-        <v>1.048174123855421</v>
+        <v>1.056895373408345</v>
       </c>
       <c r="N3">
-        <v>1.009478395198304</v>
+        <v>1.014384928622142</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9988499039647599</v>
+        <v>1.026885420925439</v>
       </c>
       <c r="D4">
-        <v>1.047194554159749</v>
+        <v>1.051584832505319</v>
       </c>
       <c r="E4">
-        <v>1.019120277532814</v>
+        <v>1.039005617920432</v>
       </c>
       <c r="F4">
-        <v>1.040124124815979</v>
+        <v>1.054824452955891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054622948731392</v>
+        <v>1.039448788040928</v>
       </c>
       <c r="J4">
-        <v>1.018283075140591</v>
+        <v>1.031460378357532</v>
       </c>
       <c r="K4">
-        <v>1.056754890307861</v>
+        <v>1.054030013300894</v>
       </c>
       <c r="L4">
-        <v>1.028993287179825</v>
+        <v>1.041482005406091</v>
       </c>
       <c r="M4">
-        <v>1.049761253763546</v>
+        <v>1.057261726473567</v>
       </c>
       <c r="N4">
-        <v>1.009976420109975</v>
+        <v>1.014501202929639</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.999940365971121</v>
+        <v>1.027129205446029</v>
       </c>
       <c r="D5">
-        <v>1.04791356779776</v>
+        <v>1.051743982890376</v>
       </c>
       <c r="E5">
-        <v>1.019990299724554</v>
+        <v>1.039212112644857</v>
       </c>
       <c r="F5">
-        <v>1.041006396695988</v>
+        <v>1.055029691789936</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054818784414212</v>
+        <v>1.039475416809543</v>
       </c>
       <c r="J5">
-        <v>1.018890213956722</v>
+        <v>1.031605716801027</v>
       </c>
       <c r="K5">
-        <v>1.057255182112864</v>
+        <v>1.054137851862167</v>
       </c>
       <c r="L5">
-        <v>1.029634594763459</v>
+        <v>1.041636381088309</v>
       </c>
       <c r="M5">
-        <v>1.05042103191351</v>
+        <v>1.057415718716679</v>
       </c>
       <c r="N5">
-        <v>1.010183497532145</v>
+        <v>1.014550087726847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000122818238713</v>
+        <v>1.027170150444154</v>
       </c>
       <c r="D6">
-        <v>1.048033853435947</v>
+        <v>1.051770704111337</v>
       </c>
       <c r="E6">
-        <v>1.020135939366838</v>
+        <v>1.039246797784145</v>
       </c>
       <c r="F6">
-        <v>1.041154047720093</v>
+        <v>1.055064160241113</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054851391042644</v>
+        <v>1.039479869312917</v>
       </c>
       <c r="J6">
-        <v>1.018991783117956</v>
+        <v>1.031630123560351</v>
       </c>
       <c r="K6">
-        <v>1.057338786406784</v>
+        <v>1.054155947815244</v>
       </c>
       <c r="L6">
-        <v>1.029741890866544</v>
+        <v>1.041662305921965</v>
       </c>
       <c r="M6">
-        <v>1.05053137964196</v>
+        <v>1.057441573315926</v>
       </c>
       <c r="N6">
-        <v>1.010218134066058</v>
+        <v>1.014558295866134</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9988645179590967</v>
+        <v>1.026888677547249</v>
       </c>
       <c r="D7">
-        <v>1.047204191231025</v>
+        <v>1.051586959134623</v>
       </c>
       <c r="E7">
-        <v>1.019131932495965</v>
+        <v>1.039008376189328</v>
       </c>
       <c r="F7">
-        <v>1.040135946497297</v>
+        <v>1.054827194833203</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054625583963186</v>
+        <v>1.03944914510054</v>
       </c>
       <c r="J7">
-        <v>1.018291212805668</v>
+        <v>1.031462320121784</v>
       </c>
       <c r="K7">
-        <v>1.056761601902647</v>
+        <v>1.054031454955222</v>
       </c>
       <c r="L7">
-        <v>1.029001882087036</v>
+        <v>1.041484067880501</v>
       </c>
       <c r="M7">
-        <v>1.049770098799377</v>
+        <v>1.057263784216437</v>
       </c>
       <c r="N7">
-        <v>1.009979196015689</v>
+        <v>1.014501856119191</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9935096595338745</v>
+        <v>1.025713986455473</v>
       </c>
       <c r="D8">
-        <v>1.043671553285248</v>
+        <v>1.050818830018908</v>
       </c>
       <c r="E8">
-        <v>1.014869957013229</v>
+        <v>1.038013817934171</v>
       </c>
       <c r="F8">
-        <v>1.035808537565596</v>
+        <v>1.053837883151301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053641528660574</v>
+        <v>1.039318038861654</v>
       </c>
       <c r="J8">
-        <v>1.015307822704701</v>
+        <v>1.030761486803484</v>
       </c>
       <c r="K8">
-        <v>1.054290757145831</v>
+        <v>1.05350957020516</v>
       </c>
       <c r="L8">
-        <v>1.025852203167817</v>
+        <v>1.040739719957846</v>
       </c>
       <c r="M8">
-        <v>1.046524358744244</v>
+        <v>1.056520467902024</v>
       </c>
       <c r="N8">
-        <v>1.008960855747773</v>
+        <v>1.014265974595212</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9836877498475781</v>
+        <v>1.02365098531053</v>
       </c>
       <c r="D9">
-        <v>1.037190986925279</v>
+        <v>1.049465034084543</v>
       </c>
       <c r="E9">
-        <v>1.007097212541196</v>
+        <v>1.036268959183005</v>
       </c>
       <c r="F9">
-        <v>1.027896411080843</v>
+        <v>1.052099122458826</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051751651956948</v>
+        <v>1.039076948280336</v>
       </c>
       <c r="J9">
-        <v>1.00982998412286</v>
+        <v>1.02952871147328</v>
       </c>
       <c r="K9">
-        <v>1.049708167148686</v>
+        <v>1.052584303895978</v>
       </c>
       <c r="L9">
-        <v>1.020076182402521</v>
+        <v>1.039430659830828</v>
       </c>
       <c r="M9">
-        <v>1.040552540184611</v>
+        <v>1.055210061963227</v>
       </c>
       <c r="N9">
-        <v>1.007088195191319</v>
+        <v>1.013850455809769</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9768536172978095</v>
+        <v>1.022280412959304</v>
       </c>
       <c r="D10">
-        <v>1.032687350793902</v>
+        <v>1.048562460735517</v>
       </c>
       <c r="E10">
-        <v>1.001722681219067</v>
+        <v>1.035110993547989</v>
       </c>
       <c r="F10">
-        <v>1.022413288760277</v>
+        <v>1.050943123943906</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050382664444317</v>
+        <v>1.038909502197062</v>
       </c>
       <c r="J10">
-        <v>1.006016660406751</v>
+        <v>1.028708401188176</v>
       </c>
       <c r="K10">
-        <v>1.046490482795754</v>
+        <v>1.051963767496228</v>
       </c>
       <c r="L10">
-        <v>1.016060901628902</v>
+        <v>1.038559771447564</v>
       </c>
       <c r="M10">
-        <v>1.036389322411571</v>
+        <v>1.054336168538048</v>
       </c>
       <c r="N10">
-        <v>1.005782873229172</v>
+        <v>1.013573562025132</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9738200849563666</v>
+        <v>1.021688087413886</v>
       </c>
       <c r="D11">
-        <v>1.030691053070268</v>
+        <v>1.048171653510835</v>
       </c>
       <c r="E11">
-        <v>0.9993459000794486</v>
+        <v>1.034610855694907</v>
       </c>
       <c r="F11">
-        <v>1.019985899126754</v>
+        <v>1.050443343942268</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049762979892316</v>
+        <v>1.038835412620993</v>
       </c>
       <c r="J11">
-        <v>1.004324044894763</v>
+        <v>1.028353578307498</v>
       </c>
       <c r="K11">
-        <v>1.045056496832485</v>
+        <v>1.051694213551874</v>
       </c>
       <c r="L11">
-        <v>1.014280162317902</v>
+        <v>1.038183116690402</v>
       </c>
       <c r="M11">
-        <v>1.034540502697229</v>
+        <v>1.053957716692048</v>
       </c>
       <c r="N11">
-        <v>1.005203135507872</v>
+        <v>1.013453698076597</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9726815483616141</v>
+        <v>1.021468244241134</v>
       </c>
       <c r="D12">
-        <v>1.029942354012178</v>
+        <v>1.048026494457246</v>
       </c>
       <c r="E12">
-        <v>0.9984552610075698</v>
+        <v>1.03442527475318</v>
       </c>
       <c r="F12">
-        <v>1.019075934912447</v>
+        <v>1.050257822016899</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049528665607309</v>
+        <v>1.038807655225668</v>
       </c>
       <c r="J12">
-        <v>1.003688825367093</v>
+        <v>1.028221839141923</v>
       </c>
       <c r="K12">
-        <v>1.044517542055099</v>
+        <v>1.05159396205404</v>
       </c>
       <c r="L12">
-        <v>1.013612115738479</v>
+        <v>1.038043278770138</v>
       </c>
       <c r="M12">
-        <v>1.033846573598271</v>
+        <v>1.05381713708018</v>
       </c>
       <c r="N12">
-        <v>1.004985519313932</v>
+        <v>1.013409180688829</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9729263097088896</v>
+        <v>1.021515393500385</v>
       </c>
       <c r="D13">
-        <v>1.030103281732148</v>
+        <v>1.048057631343948</v>
       </c>
       <c r="E13">
-        <v>0.9986466647560897</v>
+        <v>1.034465073752692</v>
       </c>
       <c r="F13">
-        <v>1.019271507604625</v>
+        <v>1.050297611696771</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049579115540948</v>
+        <v>1.038813620003451</v>
       </c>
       <c r="J13">
-        <v>1.003825381302964</v>
+        <v>1.028250095002544</v>
       </c>
       <c r="K13">
-        <v>1.044633438375564</v>
+        <v>1.051615472067975</v>
       </c>
       <c r="L13">
-        <v>1.013755717310532</v>
+        <v>1.038073271358631</v>
       </c>
       <c r="M13">
-        <v>1.033995753787412</v>
+        <v>1.05384729211526</v>
       </c>
       <c r="N13">
-        <v>1.005032303276986</v>
+        <v>1.013418729566688</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9737262163189966</v>
+        <v>1.021669911573045</v>
       </c>
       <c r="D14">
-        <v>1.030629313413124</v>
+        <v>1.048159654520826</v>
       </c>
       <c r="E14">
-        <v>0.9992724407154353</v>
+        <v>1.034595511578006</v>
       </c>
       <c r="F14">
-        <v>1.019910853014436</v>
+        <v>1.050428006209595</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049743696332624</v>
+        <v>1.038833123020803</v>
       </c>
       <c r="J14">
-        <v>1.004271671887744</v>
+        <v>1.028342687519732</v>
       </c>
       <c r="K14">
-        <v>1.045012076507869</v>
+        <v>1.051685929316123</v>
       </c>
       <c r="L14">
-        <v>1.014225077686842</v>
+        <v>1.038171556239889</v>
       </c>
       <c r="M14">
-        <v>1.034483290674188</v>
+        <v>1.053946096444286</v>
       </c>
       <c r="N14">
-        <v>1.005185194272326</v>
+        <v>1.01345001814211</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9742174904296004</v>
+        <v>1.021765138212422</v>
       </c>
       <c r="D15">
-        <v>1.030952459226206</v>
+        <v>1.048222514982897</v>
       </c>
       <c r="E15">
-        <v>0.9996569580189043</v>
+        <v>1.034675904195072</v>
       </c>
       <c r="F15">
-        <v>1.020303661469102</v>
+        <v>1.050508362356169</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049844549049747</v>
+        <v>1.038845108062321</v>
       </c>
       <c r="J15">
-        <v>1.004545775260624</v>
+        <v>1.028399744528046</v>
       </c>
       <c r="K15">
-        <v>1.045244526065185</v>
+        <v>1.05172932355226</v>
       </c>
       <c r="L15">
-        <v>1.014513382908428</v>
+        <v>1.038232121910307</v>
       </c>
       <c r="M15">
-        <v>1.034782716590384</v>
+        <v>1.054006972344794</v>
       </c>
       <c r="N15">
-        <v>1.005279090999641</v>
+        <v>1.013469296798553</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9770533282730332</v>
+        <v>1.022319747823927</v>
       </c>
       <c r="D16">
-        <v>1.032818844633005</v>
+        <v>1.048588397785455</v>
       </c>
       <c r="E16">
-        <v>1.001879346576115</v>
+        <v>1.035144212945634</v>
       </c>
       <c r="F16">
-        <v>1.022573238253716</v>
+        <v>1.050976309211439</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050423216147596</v>
+        <v>1.038914385966593</v>
       </c>
       <c r="J16">
-        <v>1.006128097200571</v>
+        <v>1.028731957659538</v>
       </c>
       <c r="K16">
-        <v>1.046584777862119</v>
+        <v>1.051981638979019</v>
       </c>
       <c r="L16">
-        <v>1.016178173304935</v>
+        <v>1.038584778298497</v>
       </c>
       <c r="M16">
-        <v>1.036511028432558</v>
+        <v>1.054361284236181</v>
       </c>
       <c r="N16">
-        <v>1.005821034631371</v>
+        <v>1.013581517734399</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9788118793739022</v>
+        <v>1.022667946358725</v>
       </c>
       <c r="D17">
-        <v>1.033977042659595</v>
+        <v>1.04881791143325</v>
       </c>
       <c r="E17">
-        <v>1.003259879916063</v>
+        <v>1.035438311707285</v>
       </c>
       <c r="F17">
-        <v>1.023982419153843</v>
+        <v>1.051270048941139</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050778931252861</v>
+        <v>1.038957418562389</v>
       </c>
       <c r="J17">
-        <v>1.007109361369153</v>
+        <v>1.028940447949652</v>
       </c>
       <c r="K17">
-        <v>1.04741445123259</v>
+        <v>1.05213968136798</v>
       </c>
       <c r="L17">
-        <v>1.017210992038917</v>
+        <v>1.038806110688703</v>
       </c>
       <c r="M17">
-        <v>1.037582622218256</v>
+        <v>1.054583522549521</v>
       </c>
       <c r="N17">
-        <v>1.006157028550093</v>
+        <v>1.013651920105498</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9798304841528721</v>
+        <v>1.022871154697886</v>
       </c>
       <c r="D18">
-        <v>1.034648160212162</v>
+        <v>1.048951783967333</v>
       </c>
       <c r="E18">
-        <v>1.004060363120024</v>
+        <v>1.035609976844021</v>
       </c>
       <c r="F18">
-        <v>1.024799264937249</v>
+        <v>1.051441456983957</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050983824643245</v>
+        <v>1.038982365830371</v>
       </c>
       <c r="J18">
-        <v>1.007677739659385</v>
+        <v>1.029062093090137</v>
       </c>
       <c r="K18">
-        <v>1.047894471582304</v>
+        <v>1.052231781962156</v>
       </c>
       <c r="L18">
-        <v>1.017809375553391</v>
+        <v>1.038935253028296</v>
       </c>
       <c r="M18">
-        <v>1.038203233711849</v>
+        <v>1.054713145431018</v>
       </c>
       <c r="N18">
-        <v>1.006351613311702</v>
+        <v>1.013692987758513</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9801766101022039</v>
+        <v>1.022940462108666</v>
       </c>
       <c r="D19">
-        <v>1.03487624811876</v>
+        <v>1.048997431162566</v>
       </c>
       <c r="E19">
-        <v>1.004332510340722</v>
+        <v>1.03566853090703</v>
       </c>
       <c r="F19">
-        <v>1.025076932157793</v>
+        <v>1.051499915288617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051053251578187</v>
+        <v>1.038990846242387</v>
       </c>
       <c r="J19">
-        <v>1.007870875820422</v>
+        <v>1.029103577056099</v>
       </c>
       <c r="K19">
-        <v>1.048057487891735</v>
+        <v>1.052263171779396</v>
       </c>
       <c r="L19">
-        <v>1.01801273136636</v>
+        <v>1.038979294460737</v>
       </c>
       <c r="M19">
-        <v>1.038414102448621</v>
+        <v>1.054757342586616</v>
       </c>
       <c r="N19">
-        <v>1.006417727853809</v>
+        <v>1.013706991285122</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9786239449020215</v>
+        <v>1.022630576560501</v>
       </c>
       <c r="D20">
-        <v>1.033853239927394</v>
+        <v>1.048793286660627</v>
       </c>
       <c r="E20">
-        <v>1.003112256409124</v>
+        <v>1.035406745029309</v>
       </c>
       <c r="F20">
-        <v>1.023831757848757</v>
+        <v>1.051238525713138</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050741034863863</v>
+        <v>1.03895281738329</v>
       </c>
       <c r="J20">
-        <v>1.007004494314192</v>
+        <v>1.028918075153012</v>
       </c>
       <c r="K20">
-        <v>1.047325841342993</v>
+        <v>1.052122733473532</v>
       </c>
       <c r="L20">
-        <v>1.017100600409499</v>
+        <v>1.038782359369825</v>
       </c>
       <c r="M20">
-        <v>1.037468110544961</v>
+        <v>1.054559678982476</v>
       </c>
       <c r="N20">
-        <v>1.006121124512447</v>
+        <v>1.01364436626901</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9734909929241503</v>
+        <v>1.021624405067233</v>
       </c>
       <c r="D21">
-        <v>1.030474610577227</v>
+        <v>1.048129611105902</v>
       </c>
       <c r="E21">
-        <v>0.9990883834242354</v>
+        <v>1.034557095559739</v>
       </c>
       <c r="F21">
-        <v>1.019722814299616</v>
+        <v>1.050389604983525</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049695346342854</v>
+        <v>1.038827386410542</v>
       </c>
       <c r="J21">
-        <v>1.004140432417942</v>
+        <v>1.028315419724397</v>
       </c>
       <c r="K21">
-        <v>1.044900752765096</v>
+        <v>1.051665184909422</v>
       </c>
       <c r="L21">
-        <v>1.014087047267621</v>
+        <v>1.038142611891306</v>
       </c>
       <c r="M21">
-        <v>1.034339924050028</v>
+        <v>1.053917001176184</v>
       </c>
       <c r="N21">
-        <v>1.005140235288542</v>
+        <v>1.013440804283042</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9701954178235056</v>
+        <v>1.020992786222813</v>
       </c>
       <c r="D22">
-        <v>1.028308629543087</v>
+        <v>1.047712357039628</v>
       </c>
       <c r="E22">
-        <v>0.9965131175140846</v>
+        <v>1.034024002041748</v>
       </c>
       <c r="F22">
-        <v>1.017091019620404</v>
+        <v>1.049856542205952</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049013901146853</v>
+        <v>1.038747150846374</v>
       </c>
       <c r="J22">
-        <v>1.002301883602988</v>
+        <v>1.027936841652401</v>
       </c>
       <c r="K22">
-        <v>1.043339400470661</v>
+        <v>1.051376771082393</v>
       </c>
       <c r="L22">
-        <v>1.012153968153681</v>
+        <v>1.037740773886185</v>
       </c>
       <c r="M22">
-        <v>1.032331336890651</v>
+        <v>1.05351289177802</v>
       </c>
       <c r="N22">
-        <v>1.004510293675351</v>
+        <v>1.013312848376429</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9719491417925979</v>
+        <v>1.021327523948192</v>
       </c>
       <c r="D23">
-        <v>1.029460895409641</v>
+        <v>1.047933548203641</v>
       </c>
       <c r="E23">
-        <v>0.9978827302155407</v>
+        <v>1.034306498700005</v>
       </c>
       <c r="F23">
-        <v>1.018490883216257</v>
+        <v>1.050139062985168</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049377453900023</v>
+        <v>1.038789815033216</v>
       </c>
       <c r="J23">
-        <v>1.003280215377405</v>
+        <v>1.028137500857051</v>
       </c>
       <c r="K23">
-        <v>1.044170639654021</v>
+        <v>1.051529733807085</v>
       </c>
       <c r="L23">
-        <v>1.013182460616739</v>
+        <v>1.037953757728894</v>
       </c>
       <c r="M23">
-        <v>1.033400179471828</v>
+        <v>1.053727120282288</v>
       </c>
       <c r="N23">
-        <v>1.004845523297965</v>
+        <v>1.013380677069051</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9787088863867585</v>
+        <v>1.022647462023956</v>
       </c>
       <c r="D24">
-        <v>1.03390919475606</v>
+        <v>1.048804413532272</v>
       </c>
       <c r="E24">
-        <v>1.003178975798044</v>
+        <v>1.035421008274651</v>
       </c>
       <c r="F24">
-        <v>1.023899850961367</v>
+        <v>1.051252769472654</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050758166605543</v>
+        <v>1.038954896930652</v>
       </c>
       <c r="J24">
-        <v>1.007051891490591</v>
+        <v>1.028928184344831</v>
       </c>
       <c r="K24">
-        <v>1.047365892420017</v>
+        <v>1.05213039175374</v>
       </c>
       <c r="L24">
-        <v>1.017150494106908</v>
+        <v>1.038793091436085</v>
       </c>
       <c r="M24">
-        <v>1.037519867115325</v>
+        <v>1.054570452879654</v>
       </c>
       <c r="N24">
-        <v>1.006137352305257</v>
+        <v>1.013647779512922</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9862753405415881</v>
+        <v>1.024183487570641</v>
       </c>
       <c r="D25">
-        <v>1.038897796960471</v>
+        <v>1.049815039681719</v>
       </c>
       <c r="E25">
-        <v>1.009139381429181</v>
+        <v>1.036719125543692</v>
       </c>
       <c r="F25">
-        <v>1.02997741619791</v>
+        <v>1.052548083443307</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052259125067327</v>
+        <v>1.039140463751481</v>
       </c>
       <c r="J25">
-        <v>1.011273589762718</v>
+        <v>1.029847147335111</v>
       </c>
       <c r="K25">
-        <v>1.050920858231731</v>
+        <v>1.052824165420716</v>
       </c>
       <c r="L25">
-        <v>1.021597457834126</v>
+        <v>1.039768769075849</v>
       </c>
       <c r="M25">
-        <v>1.042127535391991</v>
+        <v>1.055548892053561</v>
       </c>
       <c r="N25">
-        <v>1.007582018797921</v>
+        <v>1.013957858514564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025412041794131</v>
+        <v>0.9921058345549632</v>
       </c>
       <c r="D2">
-        <v>1.050621060138217</v>
+        <v>1.042745158921107</v>
       </c>
       <c r="E2">
-        <v>1.03775829515756</v>
+        <v>1.013755492351112</v>
       </c>
       <c r="F2">
-        <v>1.053583496790876</v>
+        <v>1.034675575456375</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03928360183805</v>
+        <v>1.053377764198824</v>
       </c>
       <c r="J2">
-        <v>1.030581209091588</v>
+        <v>1.014525250006733</v>
       </c>
       <c r="K2">
-        <v>1.053374829319516</v>
+        <v>1.053639452880954</v>
       </c>
       <c r="L2">
-        <v>1.040548265998759</v>
+        <v>1.025026460706415</v>
       </c>
       <c r="M2">
-        <v>1.056329064072817</v>
+        <v>1.04567207108019</v>
       </c>
       <c r="N2">
-        <v>1.014205257130815</v>
+        <v>1.008693534569953</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026306042787938</v>
+        <v>0.9962295921163978</v>
       </c>
       <c r="D3">
-        <v>1.05120623247427</v>
+        <v>1.045466211214849</v>
       </c>
       <c r="E3">
-        <v>1.038514992205918</v>
+        <v>1.017032613839219</v>
       </c>
       <c r="F3">
-        <v>1.054336578937991</v>
+        <v>1.03800548975541</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039384693642305</v>
+        <v>1.054145890113936</v>
       </c>
       <c r="J3">
-        <v>1.031114819076966</v>
+        <v>1.016823572660727</v>
       </c>
       <c r="K3">
-        <v>1.053773070461125</v>
+        <v>1.055548605886989</v>
       </c>
       <c r="L3">
-        <v>1.041114977310231</v>
+        <v>1.027452100715348</v>
       </c>
       <c r="M3">
-        <v>1.056895373408345</v>
+        <v>1.048174123855421</v>
       </c>
       <c r="N3">
-        <v>1.014384928622142</v>
+        <v>1.009478395198304</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026885420925439</v>
+        <v>0.9988499039647599</v>
       </c>
       <c r="D4">
-        <v>1.051584832505319</v>
+        <v>1.047194554159749</v>
       </c>
       <c r="E4">
-        <v>1.039005617920432</v>
+        <v>1.019120277532814</v>
       </c>
       <c r="F4">
-        <v>1.054824452955891</v>
+        <v>1.040124124815979</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039448788040928</v>
+        <v>1.054622948731392</v>
       </c>
       <c r="J4">
-        <v>1.031460378357532</v>
+        <v>1.01828307514059</v>
       </c>
       <c r="K4">
-        <v>1.054030013300894</v>
+        <v>1.056754890307861</v>
       </c>
       <c r="L4">
-        <v>1.041482005406091</v>
+        <v>1.028993287179825</v>
       </c>
       <c r="M4">
-        <v>1.057261726473567</v>
+        <v>1.049761253763545</v>
       </c>
       <c r="N4">
-        <v>1.014501202929639</v>
+        <v>1.009976420109975</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027129205446029</v>
+        <v>0.9999403659711209</v>
       </c>
       <c r="D5">
-        <v>1.051743982890376</v>
+        <v>1.04791356779776</v>
       </c>
       <c r="E5">
-        <v>1.039212112644857</v>
+        <v>1.019990299724553</v>
       </c>
       <c r="F5">
-        <v>1.055029691789936</v>
+        <v>1.041006396695988</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039475416809543</v>
+        <v>1.054818784414212</v>
       </c>
       <c r="J5">
-        <v>1.031605716801027</v>
+        <v>1.018890213956722</v>
       </c>
       <c r="K5">
-        <v>1.054137851862167</v>
+        <v>1.057255182112864</v>
       </c>
       <c r="L5">
-        <v>1.041636381088309</v>
+        <v>1.029634594763459</v>
       </c>
       <c r="M5">
-        <v>1.057415718716679</v>
+        <v>1.05042103191351</v>
       </c>
       <c r="N5">
-        <v>1.014550087726847</v>
+        <v>1.010183497532145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027170150444154</v>
+        <v>1.000122818238713</v>
       </c>
       <c r="D6">
-        <v>1.051770704111337</v>
+        <v>1.048033853435946</v>
       </c>
       <c r="E6">
-        <v>1.039246797784145</v>
+        <v>1.020135939366837</v>
       </c>
       <c r="F6">
-        <v>1.055064160241113</v>
+        <v>1.041154047720093</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039479869312917</v>
+        <v>1.054851391042644</v>
       </c>
       <c r="J6">
-        <v>1.031630123560351</v>
+        <v>1.018991783117956</v>
       </c>
       <c r="K6">
-        <v>1.054155947815244</v>
+        <v>1.057338786406784</v>
       </c>
       <c r="L6">
-        <v>1.041662305921965</v>
+        <v>1.029741890866543</v>
       </c>
       <c r="M6">
-        <v>1.057441573315926</v>
+        <v>1.05053137964196</v>
       </c>
       <c r="N6">
-        <v>1.014558295866134</v>
+        <v>1.010218134066058</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026888677547249</v>
+        <v>0.9988645179590967</v>
       </c>
       <c r="D7">
-        <v>1.051586959134623</v>
+        <v>1.047204191231025</v>
       </c>
       <c r="E7">
-        <v>1.039008376189328</v>
+        <v>1.019131932495965</v>
       </c>
       <c r="F7">
-        <v>1.054827194833203</v>
+        <v>1.040135946497297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03944914510054</v>
+        <v>1.054625583963186</v>
       </c>
       <c r="J7">
-        <v>1.031462320121784</v>
+        <v>1.018291212805668</v>
       </c>
       <c r="K7">
-        <v>1.054031454955222</v>
+        <v>1.056761601902647</v>
       </c>
       <c r="L7">
-        <v>1.041484067880501</v>
+        <v>1.029001882087036</v>
       </c>
       <c r="M7">
-        <v>1.057263784216437</v>
+        <v>1.049770098799377</v>
       </c>
       <c r="N7">
-        <v>1.014501856119191</v>
+        <v>1.009979196015689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025713986455473</v>
+        <v>0.9935096595338742</v>
       </c>
       <c r="D8">
-        <v>1.050818830018908</v>
+        <v>1.043671553285248</v>
       </c>
       <c r="E8">
-        <v>1.038013817934171</v>
+        <v>1.014869957013228</v>
       </c>
       <c r="F8">
-        <v>1.053837883151301</v>
+        <v>1.035808537565595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039318038861654</v>
+        <v>1.053641528660574</v>
       </c>
       <c r="J8">
-        <v>1.030761486803484</v>
+        <v>1.015307822704701</v>
       </c>
       <c r="K8">
-        <v>1.05350957020516</v>
+        <v>1.054290757145831</v>
       </c>
       <c r="L8">
-        <v>1.040739719957846</v>
+        <v>1.025852203167817</v>
       </c>
       <c r="M8">
-        <v>1.056520467902024</v>
+        <v>1.046524358744244</v>
       </c>
       <c r="N8">
-        <v>1.014265974595212</v>
+        <v>1.008960855747773</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02365098531053</v>
+        <v>0.9836877498475782</v>
       </c>
       <c r="D9">
-        <v>1.049465034084543</v>
+        <v>1.037190986925278</v>
       </c>
       <c r="E9">
-        <v>1.036268959183005</v>
+        <v>1.007097212541196</v>
       </c>
       <c r="F9">
-        <v>1.052099122458826</v>
+        <v>1.027896411080842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039076948280336</v>
+        <v>1.051751651956948</v>
       </c>
       <c r="J9">
-        <v>1.02952871147328</v>
+        <v>1.009829984122861</v>
       </c>
       <c r="K9">
-        <v>1.052584303895978</v>
+        <v>1.049708167148685</v>
       </c>
       <c r="L9">
-        <v>1.039430659830828</v>
+        <v>1.020076182402521</v>
       </c>
       <c r="M9">
-        <v>1.055210061963227</v>
+        <v>1.040552540184611</v>
       </c>
       <c r="N9">
-        <v>1.013850455809769</v>
+        <v>1.007088195191319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022280412959304</v>
+        <v>0.9768536172978102</v>
       </c>
       <c r="D10">
-        <v>1.048562460735517</v>
+        <v>1.032687350793903</v>
       </c>
       <c r="E10">
-        <v>1.035110993547989</v>
+        <v>1.001722681219068</v>
       </c>
       <c r="F10">
-        <v>1.050943123943906</v>
+        <v>1.022413288760278</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038909502197062</v>
+        <v>1.050382664444318</v>
       </c>
       <c r="J10">
-        <v>1.028708401188176</v>
+        <v>1.006016660406751</v>
       </c>
       <c r="K10">
-        <v>1.051963767496228</v>
+        <v>1.046490482795755</v>
       </c>
       <c r="L10">
-        <v>1.038559771447564</v>
+        <v>1.016060901628903</v>
       </c>
       <c r="M10">
-        <v>1.054336168538048</v>
+        <v>1.036389322411572</v>
       </c>
       <c r="N10">
-        <v>1.013573562025132</v>
+        <v>1.005782873229172</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021688087413886</v>
+        <v>0.9738200849563668</v>
       </c>
       <c r="D11">
-        <v>1.048171653510835</v>
+        <v>1.030691053070269</v>
       </c>
       <c r="E11">
-        <v>1.034610855694907</v>
+        <v>0.9993459000794486</v>
       </c>
       <c r="F11">
-        <v>1.050443343942268</v>
+        <v>1.019985899126755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038835412620993</v>
+        <v>1.049762979892316</v>
       </c>
       <c r="J11">
-        <v>1.028353578307498</v>
+        <v>1.004324044894763</v>
       </c>
       <c r="K11">
-        <v>1.051694213551874</v>
+        <v>1.045056496832486</v>
       </c>
       <c r="L11">
-        <v>1.038183116690402</v>
+        <v>1.014280162317902</v>
       </c>
       <c r="M11">
-        <v>1.053957716692048</v>
+        <v>1.03454050269723</v>
       </c>
       <c r="N11">
-        <v>1.013453698076597</v>
+        <v>1.005203135507872</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021468244241134</v>
+        <v>0.972681548361614</v>
       </c>
       <c r="D12">
-        <v>1.048026494457246</v>
+        <v>1.029942354012178</v>
       </c>
       <c r="E12">
-        <v>1.03442527475318</v>
+        <v>0.9984552610075698</v>
       </c>
       <c r="F12">
-        <v>1.050257822016899</v>
+        <v>1.019075934912447</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038807655225668</v>
+        <v>1.049528665607309</v>
       </c>
       <c r="J12">
-        <v>1.028221839141923</v>
+        <v>1.003688825367093</v>
       </c>
       <c r="K12">
-        <v>1.05159396205404</v>
+        <v>1.044517542055099</v>
       </c>
       <c r="L12">
-        <v>1.038043278770138</v>
+        <v>1.013612115738479</v>
       </c>
       <c r="M12">
-        <v>1.05381713708018</v>
+        <v>1.033846573598271</v>
       </c>
       <c r="N12">
-        <v>1.013409180688829</v>
+        <v>1.004985519313932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021515393500385</v>
+        <v>0.9729263097088897</v>
       </c>
       <c r="D13">
-        <v>1.048057631343948</v>
+        <v>1.030103281732148</v>
       </c>
       <c r="E13">
-        <v>1.034465073752692</v>
+        <v>0.99864666475609</v>
       </c>
       <c r="F13">
-        <v>1.050297611696771</v>
+        <v>1.019271507604625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038813620003451</v>
+        <v>1.049579115540948</v>
       </c>
       <c r="J13">
-        <v>1.028250095002544</v>
+        <v>1.003825381302965</v>
       </c>
       <c r="K13">
-        <v>1.051615472067975</v>
+        <v>1.044633438375564</v>
       </c>
       <c r="L13">
-        <v>1.038073271358631</v>
+        <v>1.013755717310532</v>
       </c>
       <c r="M13">
-        <v>1.05384729211526</v>
+        <v>1.033995753787412</v>
       </c>
       <c r="N13">
-        <v>1.013418729566688</v>
+        <v>1.005032303276986</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021669911573045</v>
+        <v>0.9737262163189965</v>
       </c>
       <c r="D14">
-        <v>1.048159654520826</v>
+        <v>1.030629313413124</v>
       </c>
       <c r="E14">
-        <v>1.034595511578006</v>
+        <v>0.999272440715435</v>
       </c>
       <c r="F14">
-        <v>1.050428006209595</v>
+        <v>1.019910853014436</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038833123020803</v>
+        <v>1.049743696332625</v>
       </c>
       <c r="J14">
-        <v>1.028342687519732</v>
+        <v>1.004271671887743</v>
       </c>
       <c r="K14">
-        <v>1.051685929316123</v>
+        <v>1.045012076507869</v>
       </c>
       <c r="L14">
-        <v>1.038171556239889</v>
+        <v>1.014225077686842</v>
       </c>
       <c r="M14">
-        <v>1.053946096444286</v>
+        <v>1.034483290674188</v>
       </c>
       <c r="N14">
-        <v>1.01345001814211</v>
+        <v>1.005185194272326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021765138212422</v>
+        <v>0.9742174904296007</v>
       </c>
       <c r="D15">
-        <v>1.048222514982897</v>
+        <v>1.030952459226207</v>
       </c>
       <c r="E15">
-        <v>1.034675904195072</v>
+        <v>0.9996569580189043</v>
       </c>
       <c r="F15">
-        <v>1.050508362356169</v>
+        <v>1.020303661469102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038845108062321</v>
+        <v>1.049844549049747</v>
       </c>
       <c r="J15">
-        <v>1.028399744528046</v>
+        <v>1.004545775260625</v>
       </c>
       <c r="K15">
-        <v>1.05172932355226</v>
+        <v>1.045244526065185</v>
       </c>
       <c r="L15">
-        <v>1.038232121910307</v>
+        <v>1.014513382908429</v>
       </c>
       <c r="M15">
-        <v>1.054006972344794</v>
+        <v>1.034782716590384</v>
       </c>
       <c r="N15">
-        <v>1.013469296798553</v>
+        <v>1.005279090999641</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022319747823927</v>
+        <v>0.9770533282730329</v>
       </c>
       <c r="D16">
-        <v>1.048588397785455</v>
+        <v>1.032818844633004</v>
       </c>
       <c r="E16">
-        <v>1.035144212945634</v>
+        <v>1.001879346576115</v>
       </c>
       <c r="F16">
-        <v>1.050976309211439</v>
+        <v>1.022573238253715</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038914385966593</v>
+        <v>1.050423216147596</v>
       </c>
       <c r="J16">
-        <v>1.028731957659538</v>
+        <v>1.006128097200571</v>
       </c>
       <c r="K16">
-        <v>1.051981638979019</v>
+        <v>1.046584777862119</v>
       </c>
       <c r="L16">
-        <v>1.038584778298497</v>
+        <v>1.016178173304934</v>
       </c>
       <c r="M16">
-        <v>1.054361284236181</v>
+        <v>1.036511028432558</v>
       </c>
       <c r="N16">
-        <v>1.013581517734399</v>
+        <v>1.005821034631371</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022667946358725</v>
+        <v>0.9788118793739019</v>
       </c>
       <c r="D17">
-        <v>1.04881791143325</v>
+        <v>1.033977042659595</v>
       </c>
       <c r="E17">
-        <v>1.035438311707285</v>
+        <v>1.003259879916063</v>
       </c>
       <c r="F17">
-        <v>1.051270048941139</v>
+        <v>1.023982419153843</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038957418562389</v>
+        <v>1.050778931252861</v>
       </c>
       <c r="J17">
-        <v>1.028940447949652</v>
+        <v>1.007109361369153</v>
       </c>
       <c r="K17">
-        <v>1.05213968136798</v>
+        <v>1.047414451232589</v>
       </c>
       <c r="L17">
-        <v>1.038806110688703</v>
+        <v>1.017210992038917</v>
       </c>
       <c r="M17">
-        <v>1.054583522549521</v>
+        <v>1.037582622218256</v>
       </c>
       <c r="N17">
-        <v>1.013651920105498</v>
+        <v>1.006157028550093</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022871154697886</v>
+        <v>0.9798304841528717</v>
       </c>
       <c r="D18">
-        <v>1.048951783967333</v>
+        <v>1.034648160212162</v>
       </c>
       <c r="E18">
-        <v>1.035609976844021</v>
+        <v>1.004060363120024</v>
       </c>
       <c r="F18">
-        <v>1.051441456983957</v>
+        <v>1.024799264937249</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038982365830371</v>
+        <v>1.050983824643245</v>
       </c>
       <c r="J18">
-        <v>1.029062093090137</v>
+        <v>1.007677739659385</v>
       </c>
       <c r="K18">
-        <v>1.052231781962156</v>
+        <v>1.047894471582303</v>
       </c>
       <c r="L18">
-        <v>1.038935253028296</v>
+        <v>1.01780937555339</v>
       </c>
       <c r="M18">
-        <v>1.054713145431018</v>
+        <v>1.038203233711848</v>
       </c>
       <c r="N18">
-        <v>1.013692987758513</v>
+        <v>1.006351613311702</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022940462108666</v>
+        <v>0.9801766101022042</v>
       </c>
       <c r="D19">
-        <v>1.048997431162566</v>
+        <v>1.03487624811876</v>
       </c>
       <c r="E19">
-        <v>1.03566853090703</v>
+        <v>1.004332510340723</v>
       </c>
       <c r="F19">
-        <v>1.051499915288617</v>
+        <v>1.025076932157794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038990846242387</v>
+        <v>1.051053251578187</v>
       </c>
       <c r="J19">
-        <v>1.029103577056099</v>
+        <v>1.007870875820423</v>
       </c>
       <c r="K19">
-        <v>1.052263171779396</v>
+        <v>1.048057487891736</v>
       </c>
       <c r="L19">
-        <v>1.038979294460737</v>
+        <v>1.01801273136636</v>
       </c>
       <c r="M19">
-        <v>1.054757342586616</v>
+        <v>1.038414102448622</v>
       </c>
       <c r="N19">
-        <v>1.013706991285122</v>
+        <v>1.006417727853809</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022630576560501</v>
+        <v>0.9786239449020222</v>
       </c>
       <c r="D20">
-        <v>1.048793286660627</v>
+        <v>1.033853239927395</v>
       </c>
       <c r="E20">
-        <v>1.035406745029309</v>
+        <v>1.003112256409125</v>
       </c>
       <c r="F20">
-        <v>1.051238525713138</v>
+        <v>1.023831757848757</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03895281738329</v>
+        <v>1.050741034863864</v>
       </c>
       <c r="J20">
-        <v>1.028918075153012</v>
+        <v>1.007004494314193</v>
       </c>
       <c r="K20">
-        <v>1.052122733473532</v>
+        <v>1.047325841342993</v>
       </c>
       <c r="L20">
-        <v>1.038782359369825</v>
+        <v>1.0171006004095</v>
       </c>
       <c r="M20">
-        <v>1.054559678982476</v>
+        <v>1.037468110544961</v>
       </c>
       <c r="N20">
-        <v>1.01364436626901</v>
+        <v>1.006121124512447</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021624405067233</v>
+        <v>0.9734909929241506</v>
       </c>
       <c r="D21">
-        <v>1.048129611105902</v>
+        <v>1.030474610577228</v>
       </c>
       <c r="E21">
-        <v>1.034557095559739</v>
+        <v>0.9990883834242357</v>
       </c>
       <c r="F21">
-        <v>1.050389604983525</v>
+        <v>1.019722814299616</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038827386410542</v>
+        <v>1.049695346342854</v>
       </c>
       <c r="J21">
-        <v>1.028315419724397</v>
+        <v>1.004140432417942</v>
       </c>
       <c r="K21">
-        <v>1.051665184909422</v>
+        <v>1.044900752765096</v>
       </c>
       <c r="L21">
-        <v>1.038142611891306</v>
+        <v>1.014087047267621</v>
       </c>
       <c r="M21">
-        <v>1.053917001176184</v>
+        <v>1.034339924050028</v>
       </c>
       <c r="N21">
-        <v>1.013440804283042</v>
+        <v>1.005140235288542</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020992786222813</v>
+        <v>0.9701954178235058</v>
       </c>
       <c r="D22">
-        <v>1.047712357039628</v>
+        <v>1.028308629543087</v>
       </c>
       <c r="E22">
-        <v>1.034024002041748</v>
+        <v>0.9965131175140846</v>
       </c>
       <c r="F22">
-        <v>1.049856542205952</v>
+        <v>1.017091019620404</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038747150846374</v>
+        <v>1.049013901146853</v>
       </c>
       <c r="J22">
-        <v>1.027936841652401</v>
+        <v>1.002301883602988</v>
       </c>
       <c r="K22">
-        <v>1.051376771082393</v>
+        <v>1.043339400470662</v>
       </c>
       <c r="L22">
-        <v>1.037740773886185</v>
+        <v>1.012153968153681</v>
       </c>
       <c r="M22">
-        <v>1.05351289177802</v>
+        <v>1.032331336890651</v>
       </c>
       <c r="N22">
-        <v>1.013312848376429</v>
+        <v>1.004510293675351</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021327523948192</v>
+        <v>0.9719491417925976</v>
       </c>
       <c r="D23">
-        <v>1.047933548203641</v>
+        <v>1.029460895409641</v>
       </c>
       <c r="E23">
-        <v>1.034306498700005</v>
+        <v>0.9978827302155403</v>
       </c>
       <c r="F23">
-        <v>1.050139062985168</v>
+        <v>1.018490883216257</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038789815033216</v>
+        <v>1.049377453900023</v>
       </c>
       <c r="J23">
-        <v>1.028137500857051</v>
+        <v>1.003280215377404</v>
       </c>
       <c r="K23">
-        <v>1.051529733807085</v>
+        <v>1.04417063965402</v>
       </c>
       <c r="L23">
-        <v>1.037953757728894</v>
+        <v>1.013182460616738</v>
       </c>
       <c r="M23">
-        <v>1.053727120282288</v>
+        <v>1.033400179471828</v>
       </c>
       <c r="N23">
-        <v>1.013380677069051</v>
+        <v>1.004845523297964</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022647462023956</v>
+        <v>0.9787088863867578</v>
       </c>
       <c r="D24">
-        <v>1.048804413532272</v>
+        <v>1.033909194756059</v>
       </c>
       <c r="E24">
-        <v>1.035421008274651</v>
+        <v>1.003178975798043</v>
       </c>
       <c r="F24">
-        <v>1.051252769472654</v>
+        <v>1.023899850961366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038954896930652</v>
+        <v>1.050758166605542</v>
       </c>
       <c r="J24">
-        <v>1.028928184344831</v>
+        <v>1.00705189149059</v>
       </c>
       <c r="K24">
-        <v>1.05213039175374</v>
+        <v>1.047365892420016</v>
       </c>
       <c r="L24">
-        <v>1.038793091436085</v>
+        <v>1.017150494106907</v>
       </c>
       <c r="M24">
-        <v>1.054570452879654</v>
+        <v>1.037519867115325</v>
       </c>
       <c r="N24">
-        <v>1.013647779512922</v>
+        <v>1.006137352305257</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024183487570641</v>
+        <v>0.9862753405415874</v>
       </c>
       <c r="D25">
-        <v>1.049815039681719</v>
+        <v>1.038897796960471</v>
       </c>
       <c r="E25">
-        <v>1.036719125543692</v>
+        <v>1.009139381429181</v>
       </c>
       <c r="F25">
-        <v>1.052548083443307</v>
+        <v>1.02997741619791</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039140463751481</v>
+        <v>1.052259125067327</v>
       </c>
       <c r="J25">
-        <v>1.029847147335111</v>
+        <v>1.011273589762718</v>
       </c>
       <c r="K25">
-        <v>1.052824165420716</v>
+        <v>1.050920858231731</v>
       </c>
       <c r="L25">
-        <v>1.039768769075849</v>
+        <v>1.021597457834125</v>
       </c>
       <c r="M25">
-        <v>1.055548892053561</v>
+        <v>1.042127535391991</v>
       </c>
       <c r="N25">
-        <v>1.013957858514564</v>
+        <v>1.007582018797921</v>
       </c>
     </row>
   </sheetData>
